--- a/Data/Members.xlsx
+++ b/Data/Members.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benjf\Documents\Programmierung\Projekte\VdZ_aDataScienceProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AD9626-9B03-4C24-8B3C-0ADEB23D94B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BF404A-785A-417C-946F-17DFDCF3C0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{1D950302-3E44-4BAB-9A1C-0A8CF36044A5}"/>
+    <workbookView xWindow="32829" yWindow="0" windowWidth="16628" windowHeight="17880" xr2:uid="{1D950302-3E44-4BAB-9A1C-0A8CF36044A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Members" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="141">
   <si>
     <t>Land</t>
   </si>
@@ -447,19 +447,49 @@
   </si>
   <si>
     <t>EAD</t>
+  </si>
+  <si>
+    <t>Stiftung</t>
+  </si>
+  <si>
+    <t>Verein</t>
+  </si>
+  <si>
+    <t>gAG</t>
+  </si>
+  <si>
+    <t>Fläche nach VdZ [ha]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF454545"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2B2B2B"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4E2F13"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -482,8 +512,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -818,15 +852,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1793D498-DAF4-4F24-86E2-41B8EA0C8D3F}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -842,8 +880,11 @@
       <c r="E1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -859,8 +900,11 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -876,8 +920,11 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -893,8 +940,11 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -910,8 +960,11 @@
       <c r="E5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -927,8 +980,11 @@
       <c r="E6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -944,8 +1000,11 @@
       <c r="E7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -961,8 +1020,11 @@
       <c r="E8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -978,8 +1040,11 @@
       <c r="E9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -995,8 +1060,11 @@
       <c r="E10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1012,8 +1080,11 @@
       <c r="E11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1029,8 +1100,11 @@
       <c r="E12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1046,8 +1120,11 @@
       <c r="E13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1063,8 +1140,11 @@
       <c r="E14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="4">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1080,8 +1160,11 @@
       <c r="E15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1097,8 +1180,11 @@
       <c r="E16" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1108,11 +1194,17 @@
       <c r="C17" t="s">
         <v>36</v>
       </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
       <c r="E17" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1122,11 +1214,17 @@
       <c r="C18" t="s">
         <v>44</v>
       </c>
+      <c r="D18" t="s">
+        <v>137</v>
+      </c>
       <c r="E18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1136,11 +1234,17 @@
       <c r="C19" t="s">
         <v>47</v>
       </c>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E19" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1150,11 +1254,17 @@
       <c r="C20" t="s">
         <v>48</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1164,11 +1274,17 @@
       <c r="C21" t="s">
         <v>49</v>
       </c>
+      <c r="D21" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="E21" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1178,11 +1294,17 @@
       <c r="C22" t="s">
         <v>50</v>
       </c>
+      <c r="D22" t="s">
+        <v>137</v>
+      </c>
       <c r="E22" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="4">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1192,11 +1314,17 @@
       <c r="C23" t="s">
         <v>51</v>
       </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
       <c r="E23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1206,11 +1334,17 @@
       <c r="C24" t="s">
         <v>52</v>
       </c>
+      <c r="D24" t="s">
+        <v>138</v>
+      </c>
       <c r="E24" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1220,11 +1354,17 @@
       <c r="C25" t="s">
         <v>60</v>
       </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
       <c r="E25" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1234,11 +1374,17 @@
       <c r="C26" t="s">
         <v>61</v>
       </c>
+      <c r="D26" t="s">
+        <v>135</v>
+      </c>
       <c r="E26" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1248,11 +1394,17 @@
       <c r="C27" t="s">
         <v>62</v>
       </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
       <c r="E27" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1262,11 +1414,17 @@
       <c r="C28" t="s">
         <v>63</v>
       </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
       <c r="E28" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="4">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1279,8 +1437,11 @@
       <c r="E29" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1290,11 +1451,17 @@
       <c r="C30" t="s">
         <v>65</v>
       </c>
+      <c r="D30" t="s">
+        <v>135</v>
+      </c>
       <c r="E30" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1304,11 +1471,17 @@
       <c r="C31" t="s">
         <v>73</v>
       </c>
+      <c r="D31" t="s">
+        <v>139</v>
+      </c>
       <c r="E31" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="4">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1318,11 +1491,17 @@
       <c r="C32" t="s">
         <v>74</v>
       </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
       <c r="E32" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="4">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1332,11 +1511,17 @@
       <c r="C33" t="s">
         <v>75</v>
       </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
       <c r="E33" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1346,11 +1531,17 @@
       <c r="C34" t="s">
         <v>76</v>
       </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
       <c r="E34" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1360,11 +1551,17 @@
       <c r="C35" t="s">
         <v>77</v>
       </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
       <c r="E35" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1377,8 +1574,11 @@
       <c r="E36" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1388,11 +1588,17 @@
       <c r="C37" t="s">
         <v>79</v>
       </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
       <c r="E37" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1402,11 +1608,17 @@
       <c r="C38" t="s">
         <v>80</v>
       </c>
+      <c r="D38" t="s">
+        <v>133</v>
+      </c>
       <c r="E38" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1416,11 +1628,17 @@
       <c r="C39" t="s">
         <v>81</v>
       </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
       <c r="E39" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1430,11 +1648,17 @@
       <c r="C40" t="s">
         <v>82</v>
       </c>
+      <c r="D40" t="s">
+        <v>135</v>
+      </c>
       <c r="E40" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1444,11 +1668,17 @@
       <c r="C41" t="s">
         <v>83</v>
       </c>
+      <c r="D41" t="s">
+        <v>135</v>
+      </c>
       <c r="E41" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1458,11 +1688,17 @@
       <c r="C42" t="s">
         <v>84</v>
       </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
       <c r="E42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1475,8 +1711,11 @@
       <c r="E43" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1486,11 +1725,17 @@
       <c r="C44" t="s">
         <v>101</v>
       </c>
+      <c r="D44" t="s">
+        <v>138</v>
+      </c>
       <c r="E44" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" s="4">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1500,11 +1745,17 @@
       <c r="C45" t="s">
         <v>102</v>
       </c>
+      <c r="D45" t="s">
+        <v>135</v>
+      </c>
       <c r="E45" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -1514,11 +1765,17 @@
       <c r="C46" t="s">
         <v>103</v>
       </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
       <c r="E46" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -1528,11 +1785,17 @@
       <c r="C47" t="s">
         <v>104</v>
       </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
       <c r="E47" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -1542,11 +1805,17 @@
       <c r="C48" t="s">
         <v>105</v>
       </c>
+      <c r="D48" t="s">
+        <v>135</v>
+      </c>
       <c r="E48" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -1556,11 +1825,17 @@
       <c r="C49" t="s">
         <v>106</v>
       </c>
+      <c r="D49" t="s">
+        <v>138</v>
+      </c>
       <c r="E49" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -1570,11 +1845,17 @@
       <c r="C50" t="s">
         <v>107</v>
       </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
       <c r="E50" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1584,11 +1865,17 @@
       <c r="C51" t="s">
         <v>108</v>
       </c>
+      <c r="D51" t="s">
+        <v>135</v>
+      </c>
       <c r="E51" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" s="4">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -1598,11 +1885,17 @@
       <c r="C52" t="s">
         <v>119</v>
       </c>
+      <c r="D52" t="s">
+        <v>135</v>
+      </c>
       <c r="E52" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" s="4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -1612,11 +1905,17 @@
       <c r="C53" t="s">
         <v>120</v>
       </c>
+      <c r="D53" t="s">
+        <v>135</v>
+      </c>
       <c r="E53" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -1626,11 +1925,17 @@
       <c r="C54" t="s">
         <v>121</v>
       </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
       <c r="E54" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -1640,11 +1945,17 @@
       <c r="C55" t="s">
         <v>126</v>
       </c>
+      <c r="D55" t="s">
+        <v>138</v>
+      </c>
       <c r="E55" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -1654,11 +1965,17 @@
       <c r="C56" t="s">
         <v>127</v>
       </c>
+      <c r="D56" t="s">
+        <v>138</v>
+      </c>
       <c r="E56" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -1670,6 +1987,9 @@
       </c>
       <c r="E57" t="s">
         <v>132</v>
+      </c>
+      <c r="F57" s="4">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Members.xlsx
+++ b/Data/Members.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benjf\Documents\Programmierung\Projekte\VdZ_aDataScienceProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BF404A-785A-417C-946F-17DFDCF3C0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4D26B1-ED8D-4CFA-89D8-443A61468439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32829" yWindow="0" windowWidth="16628" windowHeight="17880" xr2:uid="{1D950302-3E44-4BAB-9A1C-0A8CF36044A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{1D950302-3E44-4BAB-9A1C-0A8CF36044A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Members" sheetId="1" r:id="rId1"/>
@@ -854,14 +854,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1793D498-DAF4-4F24-86E2-41B8EA0C8D3F}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
